--- a/Data/LevelLayout2.xlsx
+++ b/Data/LevelLayout2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saril\Documents\GitHub\Programming4\2DAE14_Janssen_Sari_Tron\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1581E405-9D86-4D99-A35C-BA4A5767067A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CBF888-5015-4AA5-9B29-8ACA68357AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA9D7AD-EAE2-43E4-A737-467F9E8D8689}"/>
   </bookViews>
@@ -45,7 +45,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +94,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -122,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -131,6 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +455,7 @@
   <dimension ref="A1:BF54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BK28" sqref="BK28"/>
+      <selection activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,10 +2010,10 @@
         <v>2</v>
       </c>
       <c r="AS9" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT9" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU9" s="4">
         <v>2</v>
@@ -2179,10 +2186,10 @@
         <v>2</v>
       </c>
       <c r="AS10" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT10" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU10" s="4">
         <v>2</v>
@@ -5122,11 +5129,11 @@
       <c r="AB27" s="3">
         <v>1</v>
       </c>
-      <c r="AC27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>1</v>
+      <c r="AC27" s="8">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>3</v>
       </c>
       <c r="AE27" s="3">
         <v>1</v>
@@ -5298,11 +5305,11 @@
       <c r="AB28" s="3">
         <v>1</v>
       </c>
-      <c r="AC28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>1</v>
+      <c r="AC28" s="8">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="8">
+        <v>3</v>
       </c>
       <c r="AE28" s="3">
         <v>1</v>
@@ -7190,10 +7197,10 @@
         <v>2</v>
       </c>
       <c r="N39" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O39" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P39" s="4">
         <v>2</v>
@@ -7366,10 +7373,10 @@
         <v>2</v>
       </c>
       <c r="N40" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O40" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P40" s="4">
         <v>2</v>

--- a/Data/LevelLayout2.xlsx
+++ b/Data/LevelLayout2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saril\Documents\GitHub\Programming4\2DAE14_Janssen_Sari_Tron\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CBF888-5015-4AA5-9B29-8ACA68357AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A75D431-633E-4BD2-BB91-73CF8FE60D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA9D7AD-EAE2-43E4-A737-467F9E8D8689}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:BF54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,11 +4037,11 @@
       <c r="P21" s="4">
         <v>2</v>
       </c>
-      <c r="Q21" s="4">
-        <v>2</v>
-      </c>
-      <c r="R21" s="4">
-        <v>2</v>
+      <c r="Q21" s="7">
+        <v>5</v>
+      </c>
+      <c r="R21" s="7">
+        <v>5</v>
       </c>
       <c r="S21" s="4">
         <v>2</v>
@@ -4073,11 +4073,11 @@
       <c r="AB21" s="4">
         <v>2</v>
       </c>
-      <c r="AC21" s="7">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="7">
-        <v>5</v>
+      <c r="AC21" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>2</v>
       </c>
       <c r="AE21" s="4">
         <v>2</v>
@@ -4213,11 +4213,11 @@
       <c r="P22" s="4">
         <v>2</v>
       </c>
-      <c r="Q22" s="4">
-        <v>2</v>
-      </c>
-      <c r="R22" s="4">
-        <v>2</v>
+      <c r="Q22" s="7">
+        <v>5</v>
+      </c>
+      <c r="R22" s="7">
+        <v>5</v>
       </c>
       <c r="S22" s="4">
         <v>2</v>
@@ -4249,11 +4249,11 @@
       <c r="AB22" s="4">
         <v>2</v>
       </c>
-      <c r="AC22" s="7">
-        <v>5</v>
-      </c>
-      <c r="AD22" s="7">
-        <v>5</v>
+      <c r="AC22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>2</v>
       </c>
       <c r="AE22" s="4">
         <v>2</v>
